--- a/biology/Zoologie/Germanodactylus/Germanodactylus.xlsx
+++ b/biology/Zoologie/Germanodactylus/Germanodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Germanodactylus cristatus
 Germanodactylus est un genre éteint de ptérosaures ptérodactyloïdes découvert dans des sédiments du Jurassique supérieur d'Allemagne, y compris le calcaire de Solnhofen.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son envergure était de 1 mètre. La morphologie de sa crête est distinctive, elle pouvait servir de gouvernail pendant le vol, ou peut-être, à la séduction du sexe opposé lors de la saison des amours.
 </t>
@@ -544,10 +558,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La seule espèce considérée comme valide est l'espèce type Germanodactylus cristatus.
-L'espèce Germanodactylus rhamphastinus Wagner, 1851, découverte également en Allemagne, a été renommée et attribuée à un nouveau genre par Vidovic et Martill en 2017 : Altmuehlopterus[1].
+L'espèce Germanodactylus rhamphastinus Wagner, 1851, découverte également en Allemagne, a été renommée et attribuée à un nouveau genre par Vidovic et Martill en 2017 : Altmuehlopterus.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La taxonomie de Germanodactylus et des ptérodactyloïdes est très discutée.
-En 2018, Longrich, Martill, et Andres établissent le cladogramme ci-dessous qui place Germanodactylus dans une famille distincte les Germanodactylidae, appartenant aux Archaeopterodactyloidea, une super-famille des Lophocratia[2] :
-Le cladogramme réalisé en 2014 et mis à jour en 2017 par Steven Vidovic et David Martill (ce dernier étant co-auteur de l'analyse phylogénique de 2018) est très sensiblement différent. Germanodactylus est pour eux un Dsungaripteroidea basal au sein du clade des Lophocratia[1] :
+En 2018, Longrich, Martill, et Andres établissent le cladogramme ci-dessous qui place Germanodactylus dans une famille distincte les Germanodactylidae, appartenant aux Archaeopterodactyloidea, une super-famille des Lophocratia :
+Le cladogramme réalisé en 2014 et mis à jour en 2017 par Steven Vidovic et David Martill (ce dernier étant co-auteur de l'analyse phylogénique de 2018) est très sensiblement différent. Germanodactylus est pour eux un Dsungaripteroidea basal au sein du clade des Lophocratia :
 </t>
         </is>
       </c>
